--- a/results/I3_N5_M3_T15_C150_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.3773981872215</v>
+        <v>350.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.889678150917153e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.8873981872152</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407.1100000000064</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>537.38</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.622606469260926</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>1.815506319679688</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.79834375740628</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.83725742755738</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="10">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>174.4350000000015</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>185.9950000000015</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>183.5650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>188.8700000000015</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>186.8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2600000000008</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8650000000008</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>107.7250000000008</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9600000000008</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>156.5599999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>161.4099999999993</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.7299999999993</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>155.9399999999993</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999979</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999979</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999978</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999977</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999978</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.5599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.4099999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.7299999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.9399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>77.21999999999979</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>87.34499999999979</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>91.47999999999978</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>91.85999999999977</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>90.41499999999978</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>174.4350000000015</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>185.9950000000015</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>183.5650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>188.8700000000015</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>186.8</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.55999999999932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.40999999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.729999999999336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>24.43500000000148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>35.99500000000145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>33.56500000000148</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>38.87000000000145</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>36.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2080,86 +2080,9 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
